--- a/WebContent/数据库表设计.xlsx
+++ b/WebContent/数据库表设计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224">
   <si>
     <t>t_user表</t>
   </si>
@@ -547,6 +547,9 @@
     <t>回应者id</t>
   </si>
   <si>
+    <t>注意：关注消息并不添加进消息表</t>
+  </si>
+  <si>
     <t>text1</t>
   </si>
   <si>
@@ -662,6 +665,27 @@
   </si>
   <si>
     <t>文章分类类型</t>
+  </si>
+  <si>
+    <t>t_ablum表</t>
+  </si>
+  <si>
+    <t>（用户相册表）</t>
+  </si>
+  <si>
+    <t>photo</t>
+  </si>
+  <si>
+    <t>用户图片</t>
+  </si>
+  <si>
+    <t>upload_date</t>
+  </si>
+  <si>
+    <t>上传日期</t>
+  </si>
+  <si>
+    <t>图片状态</t>
   </si>
 </sst>
 </file>
@@ -669,10 +693,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -714,51 +738,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -772,33 +752,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -819,25 +788,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -851,7 +821,61 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -884,7 +908,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,7 +920,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,7 +1058,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,139 +1076,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,17 +1232,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1241,6 +1254,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1252,6 +1274,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1273,9 +1310,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1283,23 +1322,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1311,10 +1335,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1323,137 +1347,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1508,9 +1532,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1520,9 +1541,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1532,27 +1550,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1561,9 +1570,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
@@ -1887,10 +1893,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:P163"/>
+  <dimension ref="A2:P164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C110" workbookViewId="0">
-      <selection activeCell="N122" sqref="N122"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="I166" sqref="I166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2087,7 +2093,7 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="31" t="s">
         <v>37</v>
       </c>
       <c r="H12" s="9" t="s">
@@ -3588,7 +3594,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="113" ht="22.2" spans="1:5">
+    <row r="113" ht="22.95" spans="1:5">
       <c r="A113" s="1">
         <v>9</v>
       </c>
@@ -3608,10 +3614,10 @@
       <c r="L114" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="M114" s="18"/>
-      <c r="N114" s="18"/>
-      <c r="O114" s="18"/>
-      <c r="P114" s="19"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="18"/>
     </row>
     <row r="115" spans="2:16">
       <c r="B115" s="4" t="s">
@@ -3635,16 +3641,16 @@
       <c r="H115" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K115" s="20" t="s">
+      <c r="K115" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="L115" s="21" t="s">
+      <c r="L115" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="M115" s="22"/>
-      <c r="N115" s="22"/>
-      <c r="O115" s="22"/>
-      <c r="P115" s="23"/>
+      <c r="M115" s="20"/>
+      <c r="N115" s="20"/>
+      <c r="O115" s="20"/>
+      <c r="P115" s="21"/>
     </row>
     <row r="116" spans="2:16">
       <c r="B116" s="9" t="s">
@@ -3668,16 +3674,16 @@
         <v>14</v>
       </c>
       <c r="J116" s="14"/>
-      <c r="K116" s="20" t="s">
+      <c r="K116" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="L116" s="21" t="s">
+      <c r="L116" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="M116" s="22"/>
-      <c r="N116" s="22"/>
-      <c r="O116" s="22"/>
-      <c r="P116" s="23"/>
+      <c r="M116" s="20"/>
+      <c r="N116" s="20"/>
+      <c r="O116" s="20"/>
+      <c r="P116" s="21"/>
     </row>
     <row r="117" ht="15.15" spans="2:16">
       <c r="B117" s="9" t="s">
@@ -3699,16 +3705,16 @@
         <v>171</v>
       </c>
       <c r="J117" s="14"/>
-      <c r="K117" s="24" t="s">
+      <c r="K117" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="L117" s="25" t="s">
+      <c r="L117" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="M117" s="26"/>
-      <c r="N117" s="26"/>
-      <c r="O117" s="26"/>
-      <c r="P117" s="27"/>
+      <c r="M117" s="23"/>
+      <c r="N117" s="23"/>
+      <c r="O117" s="23"/>
+      <c r="P117" s="24"/>
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="13" t="s">
@@ -3730,14 +3736,14 @@
         <v>174</v>
       </c>
       <c r="I118" s="13"/>
-      <c r="K118" s="28"/>
-      <c r="L118" s="29"/>
-      <c r="M118" s="30"/>
-      <c r="N118" s="30"/>
-      <c r="O118" s="30"/>
-      <c r="P118" s="31"/>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="K118" s="25"/>
+      <c r="L118" s="20"/>
+      <c r="M118" s="20"/>
+      <c r="N118" s="20"/>
+      <c r="O118" s="20"/>
+      <c r="P118" s="20"/>
+    </row>
+    <row r="119" spans="1:16">
       <c r="A119" s="13" t="s">
         <v>68</v>
       </c>
@@ -3757,6 +3763,14 @@
         <v>176</v>
       </c>
       <c r="I119" s="13"/>
+      <c r="K119" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="L119" s="27"/>
+      <c r="M119" s="27"/>
+      <c r="N119" s="27"/>
+      <c r="O119" s="27"/>
+      <c r="P119" s="27"/>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="13" t="s">
@@ -3781,7 +3795,7 @@
     </row>
     <row r="121" spans="2:10">
       <c r="B121" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C121" s="9" t="s">
         <v>33</v>
@@ -3793,14 +3807,14 @@
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
       <c r="H121" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="I121" s="32"/>
-      <c r="J121" s="32"/>
+        <v>179</v>
+      </c>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
     </row>
     <row r="122" spans="2:8">
       <c r="B122" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C122" s="9" t="s">
         <v>33</v>
@@ -3812,7 +3826,7 @@
         <v>17</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="123" spans="2:8">
@@ -3858,11 +3872,11 @@
         <v>10</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E127" s="3"/>
     </row>
@@ -3906,7 +3920,7 @@
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
       <c r="H130" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I130" s="14" t="s">
         <v>14</v>
@@ -3944,16 +3958,16 @@
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
       <c r="H132" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I132" s="14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J132" s="14"/>
     </row>
     <row r="133" spans="2:8">
       <c r="B133" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C133" s="9" t="s">
         <v>33</v>
@@ -3965,12 +3979,12 @@
         <v>17</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="134" spans="2:8">
       <c r="B134" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C134" s="9" t="s">
         <v>16</v>
@@ -3982,12 +3996,12 @@
       <c r="F134" s="9"/>
       <c r="G134" s="9"/>
       <c r="H134" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="135" spans="2:8">
       <c r="B135" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C135" s="9" t="s">
         <v>33</v>
@@ -3999,12 +4013,12 @@
         <v>17</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="136" spans="2:8">
       <c r="B136" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C136" s="9" t="s">
         <v>33</v>
@@ -4016,15 +4030,15 @@
         <v>17</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="137" spans="2:8">
       <c r="B137" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
@@ -4033,7 +4047,7 @@
         <v>17</v>
       </c>
       <c r="H137" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4074,7 +4088,7 @@
       <c r="F139" s="9"/>
       <c r="G139" s="9"/>
       <c r="H139" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I139" s="13"/>
     </row>
@@ -4083,7 +4097,7 @@
         <v>68</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C140" s="9" t="s">
         <v>10</v>
@@ -4101,31 +4115,31 @@
     </row>
     <row r="141" spans="2:10">
       <c r="B141" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
       <c r="G141" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I141" s="14" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J141" s="14"/>
     </row>
     <row r="142" spans="2:10">
       <c r="B142" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
@@ -4137,28 +4151,28 @@
         <v>131</v>
       </c>
       <c r="I142" s="14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J142" s="14"/>
     </row>
     <row r="143" spans="2:10">
       <c r="B143" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
       <c r="G143" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H143" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I143" s="14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J143" s="14"/>
     </row>
@@ -4167,34 +4181,34 @@
         <v>11</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E146" s="3"/>
     </row>
     <row r="148" spans="2:8">
-      <c r="B148" s="33" t="s">
+      <c r="B148" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C148" s="33" t="s">
+      <c r="C148" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D148" s="33" t="s">
+      <c r="D148" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E148" s="34" t="s">
+      <c r="E148" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F148" s="33" t="s">
+      <c r="F148" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G148" s="33" t="s">
+      <c r="G148" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H148" s="33" t="s">
+      <c r="H148" s="28" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4214,7 +4228,7 @@
       <c r="F149" s="9"/>
       <c r="G149" s="9"/>
       <c r="H149" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I149" s="14" t="s">
         <v>14</v>
@@ -4266,7 +4280,7 @@
     </row>
     <row r="152" spans="2:8">
       <c r="B152" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C152" s="9" t="s">
         <v>10</v>
@@ -4277,14 +4291,14 @@
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
       <c r="G152" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="153" spans="1:10">
-      <c r="A153" s="35"/>
+      <c r="A153" s="30"/>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
       <c r="D153" s="10"/>
@@ -4306,93 +4320,145 @@
       <c r="I154" s="10"/>
       <c r="J154" s="10"/>
     </row>
-    <row r="155" spans="2:10">
-      <c r="B155" s="10"/>
-      <c r="C155" s="10"/>
-      <c r="D155" s="10"/>
-      <c r="E155" s="10"/>
-      <c r="F155" s="10"/>
-      <c r="G155" s="10"/>
-      <c r="H155" s="10"/>
-      <c r="I155" s="10"/>
-      <c r="J155" s="10"/>
-    </row>
-    <row r="156" spans="2:10">
-      <c r="B156" s="10"/>
-      <c r="C156" s="10"/>
-      <c r="D156" s="10"/>
-      <c r="E156" s="10"/>
-      <c r="F156" s="10"/>
-      <c r="G156" s="10"/>
-      <c r="H156" s="10"/>
-      <c r="I156" s="10"/>
-      <c r="J156" s="10"/>
-    </row>
-    <row r="157" spans="2:10">
-      <c r="B157" s="10"/>
-      <c r="C157" s="10"/>
-      <c r="D157" s="10"/>
-      <c r="E157" s="10"/>
-      <c r="F157" s="10"/>
-      <c r="G157" s="10"/>
-      <c r="H157" s="10"/>
-      <c r="I157" s="35"/>
-      <c r="J157" s="10"/>
+    <row r="155" ht="22.2" spans="1:5">
+      <c r="A155" s="1">
+        <v>12</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C155" s="2"/>
+      <c r="D155" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E155" s="3"/>
+    </row>
+    <row r="157" spans="2:8">
+      <c r="B157" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C157" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D157" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E157" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F157" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G157" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H157" s="28" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="158" spans="2:10">
-      <c r="B158" s="10"/>
-      <c r="C158" s="10"/>
-      <c r="D158" s="10"/>
-      <c r="E158" s="10"/>
-      <c r="F158" s="10"/>
-      <c r="G158" s="10"/>
-      <c r="H158" s="10"/>
-      <c r="I158" s="35"/>
-      <c r="J158" s="10"/>
-    </row>
-    <row r="159" spans="2:10">
-      <c r="B159" s="10"/>
-      <c r="C159" s="10"/>
-      <c r="D159" s="10"/>
-      <c r="E159" s="10"/>
-      <c r="F159" s="10"/>
-      <c r="G159" s="10"/>
-      <c r="H159" s="10"/>
-      <c r="I159" s="35"/>
-      <c r="J159" s="10"/>
-    </row>
-    <row r="160" spans="2:10">
-      <c r="B160" s="10"/>
-      <c r="C160" s="10"/>
-      <c r="D160" s="10"/>
-      <c r="E160" s="10"/>
-      <c r="F160" s="10"/>
-      <c r="G160" s="10"/>
-      <c r="H160" s="10"/>
-      <c r="I160" s="36"/>
-      <c r="J160" s="36"/>
-    </row>
-    <row r="161" spans="2:10">
-      <c r="B161" s="10"/>
-      <c r="C161" s="10"/>
-      <c r="D161" s="10"/>
-      <c r="E161" s="10"/>
-      <c r="F161" s="10"/>
-      <c r="G161" s="10"/>
-      <c r="H161" s="10"/>
-      <c r="I161" s="36"/>
-      <c r="J161" s="36"/>
+      <c r="B158" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F158" s="9"/>
+      <c r="G158" s="9"/>
+      <c r="H158" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="I158" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J158" s="14"/>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="9"/>
+      <c r="H159" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I159" s="13"/>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="13"/>
+      <c r="B160" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="I160" s="13"/>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161" s="13"/>
+      <c r="B161" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="I161" s="15"/>
+      <c r="J161" s="15"/>
     </row>
     <row r="162" spans="2:10">
-      <c r="B162" s="10"/>
-      <c r="C162" s="10"/>
-      <c r="D162" s="10"/>
-      <c r="E162" s="10"/>
-      <c r="F162" s="10"/>
-      <c r="G162" s="10"/>
-      <c r="H162" s="10"/>
-      <c r="I162" s="36"/>
-      <c r="J162" s="36"/>
+      <c r="B162" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H162" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="I162" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="J162" s="14"/>
     </row>
     <row r="163" spans="2:10">
       <c r="B163" s="10"/>
@@ -4402,11 +4468,22 @@
       <c r="F163" s="10"/>
       <c r="G163" s="10"/>
       <c r="H163" s="10"/>
-      <c r="I163" s="10"/>
-      <c r="J163" s="10"/>
+      <c r="I163" s="20"/>
+      <c r="J163" s="20"/>
+    </row>
+    <row r="164" spans="2:10">
+      <c r="B164" s="10"/>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="10"/>
+      <c r="H164" s="10"/>
+      <c r="I164" s="10"/>
+      <c r="J164" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="60">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="I5:J5"/>
@@ -4449,6 +4526,7 @@
     <mergeCell ref="I117:J117"/>
     <mergeCell ref="L117:P117"/>
     <mergeCell ref="L118:P118"/>
+    <mergeCell ref="K119:P119"/>
     <mergeCell ref="I121:J121"/>
     <mergeCell ref="I124:J124"/>
     <mergeCell ref="B127:C127"/>
@@ -4461,9 +4539,11 @@
     <mergeCell ref="B146:C146"/>
     <mergeCell ref="D146:E146"/>
     <mergeCell ref="I149:J149"/>
-    <mergeCell ref="I160:J160"/>
-    <mergeCell ref="I161:J161"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="I158:J158"/>
     <mergeCell ref="I162:J162"/>
+    <mergeCell ref="I163:J163"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/WebContent/数据库表设计.xlsx
+++ b/WebContent/数据库表设计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229">
   <si>
     <t>t_user表</t>
   </si>
@@ -562,6 +562,9 @@
     <t>内容2</t>
   </si>
   <si>
+    <t>消息时间</t>
+  </si>
+  <si>
     <t>t_report表</t>
   </si>
   <si>
@@ -610,12 +613,24 @@
     <t>举报的文章对应链接</t>
   </si>
   <si>
+    <t>被举报用户id</t>
+  </si>
+  <si>
     <t>举报用户id</t>
   </si>
   <si>
     <t>content_id</t>
   </si>
   <si>
+    <t>举报时间</t>
+  </si>
+  <si>
+    <t>notice_time</t>
+  </si>
+  <si>
+    <t>通知时间</t>
+  </si>
+  <si>
     <t>status1</t>
   </si>
   <si>
@@ -646,7 +661,7 @@
     <t>审核状态</t>
   </si>
   <si>
-    <t>（未确定/审核通过/审核不通过）</t>
+    <t>（未确定/已确定/审核通过/审核不通过/等待审核）</t>
   </si>
   <si>
     <t>t_articleType表</t>
@@ -693,10 +708,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -738,6 +753,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -752,15 +774,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,8 +789,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -796,8 +813,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -811,22 +843,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -834,32 +850,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -875,7 +867,30 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -908,13 +923,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,43 +953,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,7 +983,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,19 +1031,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,37 +1049,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,31 +1067,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,30 +1255,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1293,6 +1284,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1307,26 +1342,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1335,10 +1350,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1347,133 +1362,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1893,10 +1908,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:P164"/>
+  <dimension ref="A2:P166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="I166" sqref="I166"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="K146" sqref="K146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3843,7 +3858,7 @@
       <c r="F123" s="9"/>
       <c r="G123" s="9"/>
       <c r="H123" s="9" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
     </row>
     <row r="124" spans="2:10">
@@ -3872,11 +3887,11 @@
         <v>10</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E127" s="3"/>
     </row>
@@ -3920,7 +3935,7 @@
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
       <c r="H130" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I130" s="14" t="s">
         <v>14</v>
@@ -3958,16 +3973,16 @@
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
       <c r="H132" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I132" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J132" s="14"/>
     </row>
     <row r="133" spans="2:8">
       <c r="B133" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C133" s="9" t="s">
         <v>33</v>
@@ -3979,12 +3994,12 @@
         <v>17</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="134" spans="2:8">
       <c r="B134" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C134" s="9" t="s">
         <v>16</v>
@@ -3996,12 +4011,12 @@
       <c r="F134" s="9"/>
       <c r="G134" s="9"/>
       <c r="H134" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="135" spans="2:8">
       <c r="B135" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C135" s="9" t="s">
         <v>33</v>
@@ -4013,12 +4028,12 @@
         <v>17</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="136" spans="2:8">
       <c r="B136" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C136" s="9" t="s">
         <v>33</v>
@@ -4030,15 +4045,15 @@
         <v>17</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="137" spans="2:8">
       <c r="B137" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
@@ -4047,7 +4062,7 @@
         <v>17</v>
       </c>
       <c r="H137" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4067,7 +4082,7 @@
       <c r="F138" s="9"/>
       <c r="G138" s="9"/>
       <c r="H138" s="9" t="s">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="I138" s="13"/>
     </row>
@@ -4088,7 +4103,7 @@
       <c r="F139" s="9"/>
       <c r="G139" s="9"/>
       <c r="H139" s="9" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I139" s="13"/>
     </row>
@@ -4097,7 +4112,7 @@
         <v>68</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C140" s="9" t="s">
         <v>10</v>
@@ -4113,155 +4128,148 @@
       </c>
       <c r="I140" s="13"/>
     </row>
-    <row r="141" spans="2:10">
+    <row r="141" spans="1:9">
+      <c r="A141" s="13"/>
       <c r="B141" s="9" t="s">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D141" s="9"/>
+        <v>88</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
-      <c r="G141" s="9" t="s">
+      <c r="G141" s="9"/>
+      <c r="H141" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="H141" s="9" t="s">
+      <c r="I141" s="13"/>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="13"/>
+      <c r="B142" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="I141" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="J141" s="14"/>
-    </row>
-    <row r="142" spans="2:10">
-      <c r="B142" s="9" t="s">
-        <v>205</v>
-      </c>
       <c r="C142" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D142" s="9"/>
+        <v>88</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
-      <c r="G142" s="9" t="s">
-        <v>101</v>
-      </c>
+      <c r="G142" s="9"/>
       <c r="H142" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="I142" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="J142" s="14"/>
+        <v>204</v>
+      </c>
+      <c r="I142" s="13"/>
     </row>
     <row r="143" spans="2:10">
       <c r="B143" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
       <c r="G143" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H143" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="H143" s="9" t="s">
+      <c r="I143" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="I143" s="14" t="s">
+      <c r="J143" s="14"/>
+    </row>
+    <row r="144" spans="2:10">
+      <c r="B144" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="J143" s="14"/>
-    </row>
-    <row r="146" ht="22.2" spans="1:5">
-      <c r="A146" s="1">
-        <v>11</v>
-      </c>
-      <c r="B146" s="2" t="s">
+      <c r="C144" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H144" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="I144" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C146" s="2"/>
-      <c r="D146" s="3" t="s">
+      <c r="J144" s="14"/>
+    </row>
+    <row r="145" spans="2:12">
+      <c r="B145" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E146" s="3"/>
-    </row>
-    <row r="148" spans="2:8">
-      <c r="B148" s="28" t="s">
+      <c r="C145" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="H145" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="I145" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="J145" s="14"/>
+      <c r="K145" s="14"/>
+      <c r="L145" s="14"/>
+    </row>
+    <row r="148" ht="22.2" spans="1:5">
+      <c r="A148" s="1">
+        <v>11</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C148" s="2"/>
+      <c r="D148" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E148" s="3"/>
+    </row>
+    <row r="150" spans="2:8">
+      <c r="B150" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C148" s="28" t="s">
+      <c r="C150" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D148" s="28" t="s">
+      <c r="D150" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E148" s="29" t="s">
+      <c r="E150" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F148" s="28" t="s">
+      <c r="F150" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G148" s="28" t="s">
+      <c r="G150" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H148" s="28" t="s">
+      <c r="H150" s="28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="2:10">
-      <c r="B149" s="9" t="s">
+    <row r="151" spans="2:10">
+      <c r="B151" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="C149" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D149" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E149" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F149" s="9"/>
-      <c r="G149" s="9"/>
-      <c r="H149" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="I149" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J149" s="14"/>
-    </row>
-    <row r="150" spans="1:9">
-      <c r="A150" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C150" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D150" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E150" s="9"/>
-      <c r="F150" s="9"/>
-      <c r="G150" s="9"/>
-      <c r="H150" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I150" s="13"/>
-    </row>
-    <row r="151" spans="1:10">
-      <c r="A151" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>118</v>
       </c>
       <c r="C151" s="9" t="s">
         <v>10</v>
@@ -4269,18 +4277,25 @@
       <c r="D151" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E151" s="9"/>
+      <c r="E151" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F151" s="9"/>
       <c r="G151" s="9"/>
       <c r="H151" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I151" s="15"/>
-      <c r="J151" s="15"/>
-    </row>
-    <row r="152" spans="2:8">
+        <v>218</v>
+      </c>
+      <c r="I151" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J151" s="14"/>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="B152" s="9" t="s">
-        <v>214</v>
+        <v>69</v>
       </c>
       <c r="C152" s="9" t="s">
         <v>10</v>
@@ -4290,142 +4305,144 @@
       </c>
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
-      <c r="G152" s="9" t="s">
-        <v>215</v>
-      </c>
+      <c r="G152" s="9"/>
       <c r="H152" s="9" t="s">
-        <v>216</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I152" s="13"/>
     </row>
     <row r="153" spans="1:10">
-      <c r="A153" s="30"/>
-      <c r="B153" s="10"/>
-      <c r="C153" s="10"/>
-      <c r="D153" s="10"/>
-      <c r="E153" s="10"/>
-      <c r="F153" s="10"/>
-      <c r="G153" s="10"/>
-      <c r="H153" s="10"/>
-      <c r="I153" s="10"/>
-      <c r="J153" s="10"/>
-    </row>
-    <row r="154" spans="2:10">
-      <c r="B154" s="10"/>
-      <c r="C154" s="10"/>
-      <c r="D154" s="10"/>
-      <c r="E154" s="10"/>
-      <c r="F154" s="10"/>
-      <c r="G154" s="10"/>
-      <c r="H154" s="10"/>
-      <c r="I154" s="10"/>
-      <c r="J154" s="10"/>
-    </row>
-    <row r="155" ht="22.2" spans="1:5">
-      <c r="A155" s="1">
+      <c r="A153" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I153" s="15"/>
+      <c r="J153" s="15"/>
+    </row>
+    <row r="154" spans="2:8">
+      <c r="B154" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="H154" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" s="30"/>
+      <c r="B155" s="10"/>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="10"/>
+      <c r="H155" s="10"/>
+      <c r="I155" s="10"/>
+      <c r="J155" s="10"/>
+    </row>
+    <row r="156" spans="2:10">
+      <c r="B156" s="10"/>
+      <c r="C156" s="10"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="10"/>
+      <c r="H156" s="10"/>
+      <c r="I156" s="10"/>
+      <c r="J156" s="10"/>
+    </row>
+    <row r="157" ht="22.2" spans="1:5">
+      <c r="A157" s="1">
         <v>12</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C155" s="2"/>
-      <c r="D155" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E155" s="3"/>
-    </row>
-    <row r="157" spans="2:8">
-      <c r="B157" s="28" t="s">
+      <c r="B157" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C157" s="2"/>
+      <c r="D157" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E157" s="3"/>
+    </row>
+    <row r="159" spans="2:8">
+      <c r="B159" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C157" s="28" t="s">
+      <c r="C159" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D157" s="28" t="s">
+      <c r="D159" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E157" s="29" t="s">
+      <c r="E159" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F157" s="28" t="s">
+      <c r="F159" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G157" s="28" t="s">
+      <c r="G159" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H157" s="28" t="s">
+      <c r="H159" s="28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="2:10">
-      <c r="B158" s="9" t="s">
+    <row r="160" spans="2:10">
+      <c r="B160" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C158" s="9" t="s">
+      <c r="C160" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D158" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E158" s="9" t="s">
+      <c r="D160" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E160" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F158" s="9"/>
-      <c r="G158" s="9"/>
-      <c r="H158" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="I158" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J158" s="14"/>
-    </row>
-    <row r="159" spans="1:9">
-      <c r="A159" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C159" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D159" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E159" s="9"/>
-      <c r="F159" s="9"/>
-      <c r="G159" s="9"/>
-      <c r="H159" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I159" s="13"/>
-    </row>
-    <row r="160" spans="1:9">
-      <c r="A160" s="13"/>
-      <c r="B160" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C160" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D160" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E160" s="9"/>
       <c r="F160" s="9"/>
       <c r="G160" s="9"/>
       <c r="H160" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="I160" s="13"/>
-    </row>
-    <row r="161" spans="1:10">
-      <c r="A161" s="13"/>
+        <v>218</v>
+      </c>
+      <c r="I160" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J160" s="14"/>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="B161" s="9" t="s">
-        <v>221</v>
+        <v>126</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="D161" s="9" t="s">
         <v>11</v>
@@ -4434,53 +4451,91 @@
       <c r="F161" s="9"/>
       <c r="G161" s="9"/>
       <c r="H161" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="I161" s="15"/>
-      <c r="J161" s="15"/>
-    </row>
-    <row r="162" spans="2:10">
+        <v>13</v>
+      </c>
+      <c r="I161" s="13"/>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="13"/>
       <c r="B162" s="9" t="s">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D162" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="E162" s="9"/>
       <c r="F162" s="9"/>
-      <c r="G162" s="9" t="s">
+      <c r="G162" s="9"/>
+      <c r="H162" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="I162" s="13"/>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" s="13"/>
+      <c r="B163" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D163" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163" s="9"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="9"/>
+      <c r="H163" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="I163" s="15"/>
+      <c r="J163" s="15"/>
+    </row>
+    <row r="164" spans="2:10">
+      <c r="B164" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="H162" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="I162" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="J162" s="14"/>
-    </row>
-    <row r="163" spans="2:10">
-      <c r="B163" s="10"/>
-      <c r="C163" s="10"/>
-      <c r="D163" s="10"/>
-      <c r="E163" s="10"/>
-      <c r="F163" s="10"/>
-      <c r="G163" s="10"/>
-      <c r="H163" s="10"/>
-      <c r="I163" s="20"/>
-      <c r="J163" s="20"/>
-    </row>
-    <row r="164" spans="2:10">
-      <c r="B164" s="10"/>
-      <c r="C164" s="10"/>
-      <c r="D164" s="10"/>
-      <c r="E164" s="10"/>
-      <c r="F164" s="10"/>
-      <c r="G164" s="10"/>
-      <c r="H164" s="10"/>
-      <c r="I164" s="10"/>
-      <c r="J164" s="10"/>
+      <c r="H164" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="I164" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="J164" s="14"/>
+    </row>
+    <row r="165" spans="2:10">
+      <c r="B165" s="10"/>
+      <c r="C165" s="10"/>
+      <c r="D165" s="10"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="10"/>
+      <c r="G165" s="10"/>
+      <c r="H165" s="10"/>
+      <c r="I165" s="20"/>
+      <c r="J165" s="20"/>
+    </row>
+    <row r="166" spans="2:10">
+      <c r="B166" s="10"/>
+      <c r="C166" s="10"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="10"/>
+      <c r="H166" s="10"/>
+      <c r="I166" s="10"/>
+      <c r="J166" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="60">
@@ -4533,17 +4588,17 @@
     <mergeCell ref="D127:E127"/>
     <mergeCell ref="I130:J130"/>
     <mergeCell ref="I132:J132"/>
-    <mergeCell ref="I141:J141"/>
-    <mergeCell ref="I142:J142"/>
     <mergeCell ref="I143:J143"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="I149:J149"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="I158:J158"/>
-    <mergeCell ref="I162:J162"/>
-    <mergeCell ref="I163:J163"/>
+    <mergeCell ref="I144:J144"/>
+    <mergeCell ref="I145:L145"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="I151:J151"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="I160:J160"/>
+    <mergeCell ref="I164:J164"/>
+    <mergeCell ref="I165:J165"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/WebContent/数据库表设计.xlsx
+++ b/WebContent/数据库表设计.xlsx
@@ -708,10 +708,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -753,21 +753,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -782,6 +782,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -789,9 +835,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -807,51 +875,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -865,32 +889,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -923,30 +923,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -959,7 +935,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,7 +965,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,37 +977,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,13 +1001,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,19 +1025,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,7 +1061,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,13 +1091,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,8 +1248,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1286,29 +1286,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1342,6 +1322,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1350,10 +1350,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1362,133 +1362,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1910,8 +1910,8 @@
   <sheetPr/>
   <dimension ref="A2:P166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="K146" sqref="K146"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2312,9 +2312,7 @@
       <c r="C26" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -2369,9 +2367,7 @@
       <c r="C29" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>

--- a/WebContent/数据库表设计.xlsx
+++ b/WebContent/数据库表设计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239">
   <si>
     <t>t_user表</t>
   </si>
@@ -701,6 +701,36 @@
   </si>
   <si>
     <t>图片状态</t>
+  </si>
+  <si>
+    <t>t_notice表</t>
+  </si>
+  <si>
+    <t>（公告表）</t>
+  </si>
+  <si>
+    <t>admin_id</t>
+  </si>
+  <si>
+    <t>admin_username</t>
+  </si>
+  <si>
+    <t>/ThreeBlog_V1.0/image/noticecover/notice_three.jpg</t>
+  </si>
+  <si>
+    <t>公告图片</t>
+  </si>
+  <si>
+    <t>公告类型</t>
+  </si>
+  <si>
+    <t>维护公告，博文公告，封号公告</t>
+  </si>
+  <si>
+    <t>公告内容</t>
+  </si>
+  <si>
+    <t>发布日期</t>
   </si>
 </sst>
 </file>
@@ -708,9 +738,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -753,14 +783,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -775,8 +872,31 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -791,59 +911,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -852,45 +921,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -923,7 +953,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,7 +995,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,7 +1019,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,55 +1031,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,25 +1055,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,7 +1073,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,37 +1121,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,21 +1284,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1294,21 +1309,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1323,11 +1323,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1350,10 +1380,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1362,137 +1392,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1585,6 +1615,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
@@ -1908,10 +1941,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:P166"/>
+  <dimension ref="A2:P176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="L168" sqref="L168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2108,7 +2141,7 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="32" t="s">
         <v>37</v>
       </c>
       <c r="H12" s="9" t="s">
@@ -4533,8 +4566,185 @@
       <c r="I166" s="10"/>
       <c r="J166" s="10"/>
     </row>
+    <row r="167" ht="22.2" spans="1:5">
+      <c r="A167" s="1">
+        <v>13</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C167" s="2"/>
+      <c r="D167" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E167" s="3"/>
+    </row>
+    <row r="169" spans="2:8">
+      <c r="B169" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C169" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D169" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E169" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F169" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G169" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H169" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10">
+      <c r="B170" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D170" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E170" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F170" s="9"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="I170" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J170" s="14"/>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="9"/>
+      <c r="H171" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I171" s="13"/>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="13"/>
+      <c r="B172" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D172" s="9"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="9"/>
+      <c r="G172" s="9"/>
+      <c r="H172" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I172" s="13"/>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" s="13"/>
+      <c r="B173" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D173" s="9"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="9"/>
+      <c r="G173" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="H173" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="I173" s="13"/>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174" s="13"/>
+      <c r="B174" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D174" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="I174" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="J174" s="31"/>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175" s="13"/>
+      <c r="B175" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E175" s="9"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="9"/>
+      <c r="H175" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="I175" s="15"/>
+      <c r="J175" s="15"/>
+    </row>
+    <row r="176" spans="2:10">
+      <c r="B176" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C176" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D176" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="I176" s="14"/>
+      <c r="J176" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="65">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="I5:J5"/>
@@ -4595,6 +4805,11 @@
     <mergeCell ref="I160:J160"/>
     <mergeCell ref="I164:J164"/>
     <mergeCell ref="I165:J165"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="I170:J170"/>
+    <mergeCell ref="I174:J174"/>
+    <mergeCell ref="I176:J176"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/WebContent/数据库表设计.xlsx
+++ b/WebContent/数据库表设计.xlsx
@@ -715,10 +715,10 @@
     <t>admin_username</t>
   </si>
   <si>
-    <t>/ThreeBlog_V1.0/image/noticecover/notice_three.jpg</t>
-  </si>
-  <si>
     <t>公告图片</t>
+  </si>
+  <si>
+    <t>公告标题</t>
   </si>
   <si>
     <t>公告类型</t>
@@ -740,8 +740,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -790,7 +790,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -804,22 +820,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -842,22 +857,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -887,8 +887,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -910,19 +911,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -953,7 +953,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,13 +1055,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,61 +1073,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,79 +1127,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1275,11 +1275,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1295,54 +1301,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1364,6 +1322,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1372,6 +1339,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1380,10 +1380,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1392,16 +1392,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1413,16 +1413,16 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1431,98 +1431,98 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1615,9 +1615,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
@@ -1941,10 +1938,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:P176"/>
+  <dimension ref="A2:P177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="L168" sqref="L168"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="H183" sqref="H183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2141,7 +2138,7 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="31" t="s">
         <v>37</v>
       </c>
       <c r="H12" s="9" t="s">
@@ -4674,21 +4671,19 @@
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
       <c r="F173" s="9"/>
-      <c r="G173" s="9" t="s">
+      <c r="G173" s="9"/>
+      <c r="H173" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="H173" s="9" t="s">
-        <v>234</v>
-      </c>
       <c r="I173" s="13"/>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:9">
       <c r="A174" s="13"/>
       <c r="B174" s="9" t="s">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D174" s="9" t="s">
         <v>11</v>
@@ -4697,20 +4692,17 @@
       <c r="F174" s="9"/>
       <c r="G174" s="9"/>
       <c r="H174" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="I174" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="J174" s="31"/>
+        <v>234</v>
+      </c>
+      <c r="I174" s="13"/>
     </row>
     <row r="175" spans="1:10">
       <c r="A175" s="13"/>
       <c r="B175" s="9" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="D175" s="9" t="s">
         <v>11</v>
@@ -4719,17 +4711,20 @@
       <c r="F175" s="9"/>
       <c r="G175" s="9"/>
       <c r="H175" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="I175" s="15"/>
-      <c r="J175" s="15"/>
-    </row>
-    <row r="176" spans="2:10">
+        <v>235</v>
+      </c>
+      <c r="I175" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="J175" s="14"/>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="A176" s="13"/>
       <c r="B176" s="9" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="D176" s="9" t="s">
         <v>11</v>
@@ -4738,10 +4733,29 @@
       <c r="F176" s="9"/>
       <c r="G176" s="9"/>
       <c r="H176" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="I176" s="15"/>
+      <c r="J176" s="15"/>
+    </row>
+    <row r="177" spans="2:10">
+      <c r="B177" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D177" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E177" s="9"/>
+      <c r="F177" s="9"/>
+      <c r="G177" s="9"/>
+      <c r="H177" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="I176" s="14"/>
-      <c r="J176" s="14"/>
+      <c r="I177" s="14"/>
+      <c r="J177" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="65">
@@ -4808,8 +4822,8 @@
     <mergeCell ref="B167:C167"/>
     <mergeCell ref="D167:E167"/>
     <mergeCell ref="I170:J170"/>
-    <mergeCell ref="I174:J174"/>
-    <mergeCell ref="I176:J176"/>
+    <mergeCell ref="I175:J175"/>
+    <mergeCell ref="I177:J177"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/WebContent/数据库表设计.xlsx
+++ b/WebContent/数据库表设计.xlsx
@@ -738,10 +738,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -798,45 +798,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -849,25 +821,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -903,26 +866,63 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -953,7 +953,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,7 +1025,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,67 +1067,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,43 +1091,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,19 +1109,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1275,32 +1275,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1320,22 +1319,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1349,11 +1343,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1380,10 +1380,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1392,49 +1392,49 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1443,82 +1443,82 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1941,7 +1941,7 @@
   <dimension ref="A2:P177"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="H183" sqref="H183"/>
+      <selection activeCell="G179" sqref="G179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4743,7 +4743,7 @@
         <v>87</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="D177" s="9" t="s">
         <v>11</v>

--- a/WebContent/数据库表设计.xlsx
+++ b/WebContent/数据库表设计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240">
   <si>
     <t>t_user表</t>
   </si>
@@ -620,6 +620,9 @@
   </si>
   <si>
     <t>content_id</t>
+  </si>
+  <si>
+    <t>文章/留言/评论id</t>
   </si>
   <si>
     <t>举报时间</t>
@@ -738,9 +741,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -783,7 +786,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,30 +838,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -831,6 +855,22 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -850,6 +890,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -858,69 +922,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -953,37 +956,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,7 +968,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1007,13 +992,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,7 +1016,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,7 +1034,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,79 +1124,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1275,13 +1278,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1295,26 +1302,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1337,23 +1335,28 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1380,10 +1383,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1392,133 +1395,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1940,8 +1943,8 @@
   <sheetPr/>
   <dimension ref="A2:P177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="G179" sqref="G179"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="H140" sqref="H140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2375,7 +2378,7 @@
         <v>63</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>11</v>
@@ -3968,7 +3971,10 @@
       </c>
       <c r="J130" s="14"/>
     </row>
-    <row r="131" spans="2:8">
+    <row r="131" spans="1:8">
+      <c r="A131" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="B131" s="9" t="s">
         <v>15</v>
       </c>
@@ -4133,10 +4139,7 @@
       </c>
       <c r="I139" s="13"/>
     </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="13" t="s">
-        <v>68</v>
-      </c>
+    <row r="140" spans="2:9">
       <c r="B140" s="9" t="s">
         <v>201</v>
       </c>
@@ -4150,7 +4153,7 @@
       <c r="F140" s="9"/>
       <c r="G140" s="9"/>
       <c r="H140" s="9" t="s">
-        <v>67</v>
+        <v>202</v>
       </c>
       <c r="I140" s="13"/>
     </row>
@@ -4169,14 +4172,14 @@
       <c r="F141" s="9"/>
       <c r="G141" s="9"/>
       <c r="H141" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I141" s="13"/>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="13"/>
       <c r="B142" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C142" s="9" t="s">
         <v>88</v>
@@ -4188,37 +4191,37 @@
       <c r="F142" s="9"/>
       <c r="G142" s="9"/>
       <c r="H142" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I142" s="13"/>
     </row>
     <row r="143" spans="2:10">
       <c r="B143" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
       <c r="G143" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H143" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I143" s="14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J143" s="14"/>
     </row>
     <row r="144" spans="2:10">
       <c r="B144" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
@@ -4230,28 +4233,28 @@
         <v>131</v>
       </c>
       <c r="I144" s="14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J144" s="14"/>
     </row>
     <row r="145" spans="2:12">
       <c r="B145" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
       <c r="G145" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I145" s="14" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J145" s="14"/>
       <c r="K145" s="14"/>
@@ -4262,11 +4265,11 @@
         <v>11</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E148" s="3"/>
     </row>
@@ -4309,7 +4312,7 @@
       <c r="F151" s="9"/>
       <c r="G151" s="9"/>
       <c r="H151" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I151" s="14" t="s">
         <v>14</v>
@@ -4361,7 +4364,7 @@
     </row>
     <row r="154" spans="2:8">
       <c r="B154" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C154" s="9" t="s">
         <v>10</v>
@@ -4372,10 +4375,10 @@
       <c r="E154" s="9"/>
       <c r="F154" s="9"/>
       <c r="G154" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -4406,11 +4409,11 @@
         <v>12</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E157" s="3"/>
     </row>
@@ -4453,7 +4456,7 @@
       <c r="F160" s="9"/>
       <c r="G160" s="9"/>
       <c r="H160" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I160" s="14" t="s">
         <v>14</v>
@@ -4484,7 +4487,7 @@
     <row r="162" spans="1:9">
       <c r="A162" s="13"/>
       <c r="B162" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C162" s="9" t="s">
         <v>33</v>
@@ -4496,14 +4499,14 @@
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
       <c r="H162" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I162" s="13"/>
     </row>
     <row r="163" spans="1:10">
       <c r="A163" s="13"/>
       <c r="B163" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C163" s="9" t="s">
         <v>88</v>
@@ -4515,7 +4518,7 @@
       <c r="F163" s="9"/>
       <c r="G163" s="9"/>
       <c r="H163" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I163" s="15"/>
       <c r="J163" s="15"/>
@@ -4525,7 +4528,7 @@
         <v>99</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D164" s="9"/>
       <c r="E164" s="9"/>
@@ -4534,10 +4537,10 @@
         <v>101</v>
       </c>
       <c r="H164" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I164" s="14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J164" s="14"/>
     </row>
@@ -4568,11 +4571,11 @@
         <v>13</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E167" s="3"/>
     </row>
@@ -4615,7 +4618,7 @@
       <c r="F170" s="9"/>
       <c r="G170" s="9"/>
       <c r="H170" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I170" s="14" t="s">
         <v>14</v>
@@ -4627,7 +4630,7 @@
         <v>68</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C171" s="9" t="s">
         <v>10</v>
@@ -4646,7 +4649,7 @@
     <row r="172" spans="1:9">
       <c r="A172" s="13"/>
       <c r="B172" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C172" s="9" t="s">
         <v>16</v>
@@ -4663,7 +4666,7 @@
     <row r="173" spans="1:9">
       <c r="A173" s="13"/>
       <c r="B173" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C173" s="9" t="s">
         <v>33</v>
@@ -4673,7 +4676,7 @@
       <c r="F173" s="9"/>
       <c r="G173" s="9"/>
       <c r="H173" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I173" s="13"/>
     </row>
@@ -4692,7 +4695,7 @@
       <c r="F174" s="9"/>
       <c r="G174" s="9"/>
       <c r="H174" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I174" s="13"/>
     </row>
@@ -4711,10 +4714,10 @@
       <c r="F175" s="9"/>
       <c r="G175" s="9"/>
       <c r="H175" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I175" s="14" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J175" s="14"/>
     </row>
@@ -4733,7 +4736,7 @@
       <c r="F176" s="9"/>
       <c r="G176" s="9"/>
       <c r="H176" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I176" s="15"/>
       <c r="J176" s="15"/>
@@ -4752,7 +4755,7 @@
       <c r="F177" s="9"/>
       <c r="G177" s="9"/>
       <c r="H177" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I177" s="14"/>
       <c r="J177" s="14"/>

--- a/WebContent/数据库表设计.xlsx
+++ b/WebContent/数据库表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21323" windowHeight="8484"/>
+    <workbookView windowWidth="21108" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -325,7 +325,7 @@
     <t>文章状态</t>
   </si>
   <si>
-    <t>(正常、举报中、屏蔽)三个状态</t>
+    <t>(正常、屏蔽)两个状态</t>
   </si>
   <si>
     <t>t_answer表</t>
@@ -786,7 +786,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -822,6 +845,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -830,37 +861,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -890,6 +891,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -901,22 +917,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -956,7 +956,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,7 +992,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,7 +1046,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,19 +1058,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,43 +1088,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,61 +1130,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1278,17 +1278,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1318,16 +1329,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1343,17 +1354,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1362,16 +1362,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1383,10 +1383,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1395,16 +1395,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1413,115 +1413,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1943,8 +1943,8 @@
   <sheetPr/>
   <dimension ref="A2:P177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="H140" sqref="H140"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="I74" sqref="I74:J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
